--- a/Environmental variable.xlsx
+++ b/Environmental variable.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silin/Desktop/課程講義/HT檔案/Thesis/8000 words/for github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silin/Desktop/課程講義/HT檔案/Thesis/8000 words/for github/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC56A40-7454-3A43-8178-1511915FA74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3DF8ED-8045-A84D-8149-3AF062644A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{E55D0841-4697-9F46-A398-795F066185AC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{E55D0841-4697-9F46-A398-795F066185AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="env" sheetId="1" r:id="rId1"/>
+    <sheet name="Environmental_variables" sheetId="1" r:id="rId1"/>
     <sheet name="Monthly_temp_and_fog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF47514F-BD1F-274B-A2ED-F7E581413DB0}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2153,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BB343-7902-D742-9769-A3287BB47325}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/Environmental variable.xlsx
+++ b/Environmental variable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silin/Desktop/課程講義/HT檔案/Thesis/8000 words/for github/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3DF8ED-8045-A84D-8149-3AF062644A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCCEE06-2080-1F4E-9E33-A02E822E1F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{E55D0841-4697-9F46-A398-795F066185AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>plot</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>F04A</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>F04B</t>
@@ -571,7 +568,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,8 +1179,8 @@
       <c r="O11">
         <v>114.64</v>
       </c>
-      <c r="P11" t="s">
-        <v>28</v>
+      <c r="P11">
+        <v>0.45939249999999998</v>
       </c>
       <c r="Q11">
         <v>1.6911699339999999</v>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>121.44416</v>
@@ -1250,7 +1247,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>121.44784</v>
@@ -1306,7 +1303,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>121.36751</v>
@@ -1362,7 +1359,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>121.36693</v>
@@ -1418,7 +1415,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>121.36572</v>
@@ -1474,7 +1471,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>121.38018</v>
@@ -1530,7 +1527,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>121.37869000000001</v>
@@ -1586,7 +1583,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>121.37600999999999</v>
@@ -1642,7 +1639,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>121.43698000000001</v>
@@ -1698,7 +1695,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>121.43625</v>
@@ -1754,7 +1751,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>121.43522</v>
@@ -1810,7 +1807,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>121.35598</v>
@@ -1866,7 +1863,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>121.35692</v>
@@ -1922,7 +1919,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>121.35589</v>
@@ -1978,7 +1975,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>121.5074</v>
@@ -2022,8 +2019,8 @@
       <c r="O26">
         <v>153.66</v>
       </c>
-      <c r="P26" t="s">
-        <v>28</v>
+      <c r="P26">
+        <v>0.35218250000000001</v>
       </c>
       <c r="Q26">
         <v>2.6301022860000001</v>
@@ -2034,7 +2031,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>121.506376</v>
@@ -2090,7 +2087,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>121.50279500000001</v>
@@ -2167,55 +2164,55 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
       </c>
       <c r="L1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
-      </c>
-      <c r="O1" t="s">
-        <v>56</v>
       </c>
       <c r="P1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2810,7 +2807,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>17.262935389999999</v>
@@ -2869,7 +2866,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>16.671754230000001</v>
@@ -2928,7 +2925,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>16.767602660000001</v>
@@ -2987,7 +2984,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>16.794447770000001</v>
@@ -3046,7 +3043,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>16.506212560000002</v>
@@ -3105,7 +3102,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>17.336656699999999</v>
@@ -3164,7 +3161,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>17.471803739999999</v>
@@ -3223,7 +3220,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>17.030944439999999</v>
@@ -3282,7 +3279,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>17.713998790000002</v>
@@ -3341,7 +3338,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>17.728759360000002</v>
@@ -3400,7 +3397,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>17.546681759999998</v>
@@ -3459,7 +3456,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>17.391666059999999</v>
@@ -3518,7 +3515,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>17.69109813</v>
@@ -3577,7 +3574,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>17.508788039999999</v>
@@ -3636,7 +3633,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>17.699059479999999</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>17.523611110000001</v>
@@ -3754,7 +3751,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>17.685711649999998</v>

--- a/Environmental variable.xlsx
+++ b/Environmental variable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silin/Desktop/課程講義/HT檔案/Thesis/8000 words/for github/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCCEE06-2080-1F4E-9E33-A02E822E1F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B77331-2FB2-F648-8D3B-B850A1449E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{E55D0841-4697-9F46-A398-795F066185AC}"/>
+    <workbookView xWindow="1080" yWindow="4560" windowWidth="26580" windowHeight="16280" activeTab="1" xr2:uid="{E55D0841-4697-9F46-A398-795F066185AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental_variables" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>plot</t>
   </si>
@@ -53,9 +53,6 @@
     <t>freq_jan</t>
   </si>
   <si>
-    <t>freq_aug</t>
-  </si>
-  <si>
     <t>elevation</t>
   </si>
   <si>
@@ -68,15 +65,9 @@
     <t>RH_jan</t>
   </si>
   <si>
-    <t>RH_aug</t>
-  </si>
-  <si>
     <t>percip_jan</t>
   </si>
   <si>
-    <t>percip_aug</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
@@ -194,25 +185,58 @@
     <t>temp_apr</t>
   </si>
   <si>
-    <t>freq_sep</t>
-  </si>
-  <si>
-    <t>freq_oct</t>
-  </si>
-  <si>
-    <t>freq_nov</t>
-  </si>
-  <si>
-    <t>freq_dec</t>
-  </si>
-  <si>
-    <t>freq_feb</t>
-  </si>
-  <si>
-    <t>freq_mar</t>
-  </si>
-  <si>
-    <t>freq_apr</t>
+    <t>RH_jul</t>
+  </si>
+  <si>
+    <t>temp_jul</t>
+  </si>
+  <si>
+    <t>percip_jul</t>
+  </si>
+  <si>
+    <t>freq_jul</t>
+  </si>
+  <si>
+    <t>fog_aug</t>
+  </si>
+  <si>
+    <t>fog_sep</t>
+  </si>
+  <si>
+    <t>fog_oct</t>
+  </si>
+  <si>
+    <t>fog_nov</t>
+  </si>
+  <si>
+    <t>fog_dec</t>
+  </si>
+  <si>
+    <t>fog_jan</t>
+  </si>
+  <si>
+    <t>fog_feb</t>
+  </si>
+  <si>
+    <t>fog_mar</t>
+  </si>
+  <si>
+    <t>fog_apr</t>
+  </si>
+  <si>
+    <t>fog_may</t>
+  </si>
+  <si>
+    <t>fog_jun</t>
+  </si>
+  <si>
+    <t>fog_jul</t>
+  </si>
+  <si>
+    <t>temp_may</t>
+  </si>
+  <si>
+    <t>temp_jun</t>
   </si>
 </sst>
 </file>
@@ -567,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF47514F-BD1F-274B-A2ED-F7E581413DB0}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,48 +614,48 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>121.34358</v>
@@ -646,7 +670,7 @@
         <v>0.12392427</v>
       </c>
       <c r="F2">
-        <v>5.6016598000000001E-2</v>
+        <v>4.9212597310543102E-2</v>
       </c>
       <c r="G2">
         <v>2086</v>
@@ -655,19 +679,19 @@
         <v>6.8525996859999996</v>
       </c>
       <c r="I2">
-        <v>17.142605679999999</v>
+        <v>17.535275537634401</v>
       </c>
       <c r="J2">
         <v>87.704070790000003</v>
       </c>
       <c r="K2">
-        <v>91.308564610000005</v>
+        <v>88.589669578853005</v>
       </c>
       <c r="L2">
         <v>69.492647050000002</v>
       </c>
       <c r="M2">
-        <v>356.85858259999998</v>
+        <v>244.10330149999999</v>
       </c>
       <c r="N2">
         <v>3.39</v>
@@ -687,7 +711,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>121.34222</v>
@@ -702,7 +726,7 @@
         <v>0.12349913999999999</v>
       </c>
       <c r="F3">
-        <v>4.7817048000000001E-2</v>
+        <v>3.9215687662362997E-2</v>
       </c>
       <c r="G3">
         <v>2081</v>
@@ -711,19 +735,19 @@
         <v>6.8192202059999998</v>
       </c>
       <c r="I3">
-        <v>16.886128320000001</v>
+        <v>17.358539426523301</v>
       </c>
       <c r="J3">
         <v>83.061155909999997</v>
       </c>
       <c r="K3">
-        <v>89.014009659999999</v>
+        <v>83.344968637993006</v>
       </c>
       <c r="L3">
         <v>70.963338340000007</v>
       </c>
       <c r="M3">
-        <v>355.88777210000001</v>
+        <v>247.93342340000001</v>
       </c>
       <c r="N3">
         <v>3.88</v>
@@ -743,7 +767,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>121.34168</v>
@@ -758,7 +782,7 @@
         <v>0.12349913999999999</v>
       </c>
       <c r="F4">
-        <v>4.7817048000000001E-2</v>
+        <v>3.9215687662362997E-2</v>
       </c>
       <c r="G4">
         <v>2055</v>
@@ -767,19 +791,19 @@
         <v>6.7570309140000004</v>
       </c>
       <c r="I4">
-        <v>16.843705010000001</v>
+        <v>17.3162939068099</v>
       </c>
       <c r="J4">
         <v>89.796596100000002</v>
       </c>
       <c r="K4">
-        <v>93.798892809999998</v>
+        <v>91.003519937275996</v>
       </c>
       <c r="L4">
         <v>70.963338340000007</v>
       </c>
       <c r="M4">
-        <v>355.88777210000001</v>
+        <v>247.93342340000001</v>
       </c>
       <c r="N4">
         <v>3.99</v>
@@ -799,7 +823,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>121.35485</v>
@@ -814,7 +838,7 @@
         <v>0.15463916999999999</v>
       </c>
       <c r="F5">
-        <v>4.9792532E-2</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="G5">
         <v>2071</v>
@@ -823,19 +847,19 @@
         <v>6.9911915320000002</v>
       </c>
       <c r="I5">
-        <v>17.10806371</v>
+        <v>17.478683691756199</v>
       </c>
       <c r="J5">
         <v>89.178291889999997</v>
       </c>
       <c r="K5">
-        <v>91.920742750000002</v>
+        <v>89.187310035842401</v>
       </c>
       <c r="L5">
         <v>71.250801280000005</v>
       </c>
       <c r="M5">
-        <v>360.75088779999999</v>
+        <v>246.9084618</v>
       </c>
       <c r="N5">
         <v>3.51</v>
@@ -855,7 +879,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>121.3562</v>
@@ -870,7 +894,7 @@
         <v>0.15463916999999999</v>
       </c>
       <c r="F6">
-        <v>4.9792532E-2</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="G6">
         <v>2060</v>
@@ -879,19 +903,19 @@
         <v>6.9588145160000003</v>
       </c>
       <c r="I6">
-        <v>17.038620470000001</v>
+        <v>17.609603158602098</v>
       </c>
       <c r="J6">
         <v>81.694558689999994</v>
       </c>
       <c r="K6">
-        <v>88.062454709999997</v>
+        <v>89.028451388888897</v>
       </c>
       <c r="L6">
         <v>71.250801280000005</v>
       </c>
       <c r="M6">
-        <v>360.75088779999999</v>
+        <v>246.9084618</v>
       </c>
       <c r="N6">
         <v>4.59</v>
@@ -911,7 +935,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>121.3533</v>
@@ -926,7 +950,7 @@
         <v>0.148020655</v>
       </c>
       <c r="F7">
-        <v>6.0165974999999997E-2</v>
+        <v>4.7058824449777603E-2</v>
       </c>
       <c r="G7">
         <v>2020</v>
@@ -935,19 +959,19 @@
         <v>6.9959831990000003</v>
       </c>
       <c r="I7">
-        <v>17.298215280000001</v>
+        <v>17.740522625448001</v>
       </c>
       <c r="J7">
         <v>89.739094980000004</v>
       </c>
       <c r="K7">
-        <v>92.606867449999996</v>
+        <v>88.869592741935506</v>
       </c>
       <c r="L7">
         <v>71.250801280000005</v>
       </c>
       <c r="M7">
-        <v>360.75088779999999</v>
+        <v>246.9084618</v>
       </c>
       <c r="N7">
         <v>3.9</v>
@@ -967,7 +991,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>121.36541</v>
@@ -982,7 +1006,7 @@
         <v>0.17647059300000001</v>
       </c>
       <c r="F8">
-        <v>5.3278687999999998E-2</v>
+        <v>4.59770113229752E-2</v>
       </c>
       <c r="G8">
         <v>2040</v>
@@ -991,19 +1015,19 @@
         <v>5.953857975</v>
       </c>
       <c r="I8">
-        <v>16.86946618</v>
+        <v>17.280460125447998</v>
       </c>
       <c r="J8">
         <v>93.511872089999997</v>
       </c>
       <c r="K8">
-        <v>93.538307970000005</v>
+        <v>91.875328629032396</v>
       </c>
       <c r="L8">
         <v>71.939398220000001</v>
       </c>
       <c r="M8">
-        <v>359.41318419999999</v>
+        <v>248.81373139999999</v>
       </c>
       <c r="N8">
         <v>3.01</v>
@@ -1023,7 +1047,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>121.36568</v>
@@ -1038,7 +1062,7 @@
         <v>0.20707070799999999</v>
       </c>
       <c r="F9">
-        <v>6.0291059000000001E-2</v>
+        <v>5.55555559694767E-2</v>
       </c>
       <c r="G9">
         <v>2055</v>
@@ -1047,19 +1071,19 @@
         <v>5.988890681</v>
       </c>
       <c r="I9">
-        <v>16.887043779999999</v>
+        <v>17.171097222222201</v>
       </c>
       <c r="J9">
         <v>91.684229389999999</v>
       </c>
       <c r="K9">
-        <v>92.061711959999997</v>
+        <v>86.818875448028706</v>
       </c>
       <c r="L9">
         <v>71.939398220000001</v>
       </c>
       <c r="M9">
-        <v>359.41318419999999</v>
+        <v>248.81373139999999</v>
       </c>
       <c r="N9">
         <v>3.18</v>
@@ -1079,7 +1103,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>121.36608</v>
@@ -1094,7 +1118,7 @@
         <v>0.18212479400000001</v>
       </c>
       <c r="F10">
-        <v>6.9182387999999997E-2</v>
+        <v>5.7361375540494898E-2</v>
       </c>
       <c r="G10">
         <v>2000</v>
@@ -1103,19 +1127,19 @@
         <v>5.8870255379999996</v>
       </c>
       <c r="I10">
-        <v>16.72798551</v>
+        <v>17.162118951612999</v>
       </c>
       <c r="J10">
         <v>94.621341619999995</v>
       </c>
       <c r="K10">
-        <v>94.404638590000005</v>
+        <v>93.640293682795701</v>
       </c>
       <c r="L10">
         <v>71.939398220000001</v>
       </c>
       <c r="M10">
-        <v>359.41318419999999</v>
+        <v>248.81373139999999</v>
       </c>
       <c r="N10">
         <v>3.28</v>
@@ -1135,7 +1159,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>121.44958</v>
@@ -1150,7 +1174,7 @@
         <v>0.228905</v>
       </c>
       <c r="F11">
-        <v>8.8090000000000002E-2</v>
+        <v>8.3419999999999994E-2</v>
       </c>
       <c r="G11">
         <v>2115</v>
@@ -1159,19 +1183,19 @@
         <v>5.7458035389999997</v>
       </c>
       <c r="I11">
-        <v>16.568702290000001</v>
+        <v>16.8830613799283</v>
       </c>
       <c r="J11">
         <v>92.178878580000003</v>
       </c>
       <c r="K11">
-        <v>93.216818540000006</v>
+        <v>91.076397177419395</v>
       </c>
       <c r="L11">
         <v>139.2769284</v>
       </c>
       <c r="M11">
-        <v>410.20942530000002</v>
+        <v>228.8770079</v>
       </c>
       <c r="N11">
         <v>3.24</v>
@@ -1191,7 +1215,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>121.44416</v>
@@ -1206,7 +1230,7 @@
         <v>0.20583190000000001</v>
       </c>
       <c r="F12">
-        <v>7.9664573000000002E-2</v>
+        <v>7.9150579869747203E-2</v>
       </c>
       <c r="G12">
         <v>2082</v>
@@ -1215,19 +1239,19 @@
         <v>6.5270197129999996</v>
       </c>
       <c r="I12">
-        <v>17.262935389999999</v>
+        <v>17.306602150537699</v>
       </c>
       <c r="J12">
         <v>91.774797489999997</v>
       </c>
       <c r="K12">
-        <v>92.536425719999997</v>
+        <v>90.137686379928397</v>
       </c>
       <c r="L12">
         <v>131.73215719999999</v>
       </c>
       <c r="M12">
-        <v>408.8815803</v>
+        <v>230.33842139999999</v>
       </c>
       <c r="N12">
         <v>3.41</v>
@@ -1247,7 +1271,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>121.44784</v>
@@ -1262,7 +1286,7 @@
         <v>0.228905</v>
       </c>
       <c r="F13">
-        <v>8.8090000000000002E-2</v>
+        <v>8.3419999999999994E-2</v>
       </c>
       <c r="G13">
         <v>2105</v>
@@ -1271,19 +1295,19 @@
         <v>6.0476859320000003</v>
       </c>
       <c r="I13">
-        <v>16.671754230000001</v>
+        <v>17.094831765233</v>
       </c>
       <c r="J13">
         <v>87.775006719999993</v>
       </c>
       <c r="K13">
-        <v>88.976651570000001</v>
+        <v>90.607041778673903</v>
       </c>
       <c r="L13">
         <v>139.2769284</v>
       </c>
       <c r="M13">
-        <v>410.20942530000002</v>
+        <v>228.8770079</v>
       </c>
       <c r="N13">
         <v>3.62</v>
@@ -1303,7 +1327,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>121.36751</v>
@@ -1318,7 +1342,7 @@
         <v>0.275042444</v>
       </c>
       <c r="F14">
-        <v>8.8659793000000001E-2</v>
+        <v>0.10150375962257401</v>
       </c>
       <c r="G14">
         <v>2085</v>
@@ -1327,19 +1351,19 @@
         <v>6.3054569889999996</v>
       </c>
       <c r="I14">
-        <v>16.767602660000001</v>
+        <v>17.163833557347601</v>
       </c>
       <c r="J14">
         <v>90.431243280000004</v>
       </c>
       <c r="K14">
-        <v>93.820981880000005</v>
+        <v>91.776940860215007</v>
       </c>
       <c r="L14">
         <v>79.968290100000004</v>
       </c>
       <c r="M14">
-        <v>387.81610640000002</v>
+        <v>248.4360777</v>
       </c>
       <c r="N14">
         <v>3.52</v>
@@ -1359,7 +1383,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>121.36693</v>
@@ -1374,7 +1398,7 @@
         <v>0.275042444</v>
       </c>
       <c r="F15">
-        <v>8.8659793000000001E-2</v>
+        <v>0.10150375962257401</v>
       </c>
       <c r="G15">
         <v>2070</v>
@@ -1383,19 +1407,19 @@
         <v>6.4786227600000004</v>
       </c>
       <c r="I15">
-        <v>16.794447770000001</v>
+        <v>17.224108646953301</v>
       </c>
       <c r="J15">
         <v>90.498310480000001</v>
       </c>
       <c r="K15">
-        <v>94.634711960000004</v>
+        <v>92.393137544802798</v>
       </c>
       <c r="L15">
         <v>79.306742850000006</v>
       </c>
       <c r="M15">
-        <v>383.1856861</v>
+        <v>247.6530128</v>
       </c>
       <c r="N15">
         <v>3.66</v>
@@ -1415,7 +1439,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>121.36572</v>
@@ -1430,7 +1454,7 @@
         <v>0.23661485300000001</v>
       </c>
       <c r="F16">
-        <v>7.5819671000000005E-2</v>
+        <v>7.3170728981494904E-2</v>
       </c>
       <c r="G16">
         <v>2120</v>
@@ -1439,19 +1463,19 @@
         <v>6.0433454299999996</v>
       </c>
       <c r="I16">
-        <v>16.506212560000002</v>
+        <v>16.8538508064517</v>
       </c>
       <c r="J16">
         <v>86.81639113</v>
       </c>
       <c r="K16">
-        <v>90.831286230000003</v>
+        <v>86.588230286738394</v>
       </c>
       <c r="L16">
         <v>79.909796060000005</v>
       </c>
       <c r="M16">
-        <v>381.72143319999998</v>
+        <v>250.6924147</v>
       </c>
       <c r="N16">
         <v>3.93</v>
@@ -1471,7 +1495,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>121.38018</v>
@@ -1486,7 +1510,7 @@
         <v>0.29982668200000001</v>
       </c>
       <c r="F17">
-        <v>0.107660457</v>
+        <v>0.12098298966884601</v>
       </c>
       <c r="G17">
         <v>1930</v>
@@ -1495,19 +1519,19 @@
         <v>6.5233559589999999</v>
       </c>
       <c r="I17">
-        <v>17.336656699999999</v>
+        <v>17.767870743727599</v>
       </c>
       <c r="J17">
         <v>92.609765010000004</v>
       </c>
       <c r="K17">
-        <v>94.30531431</v>
+        <v>92.678935259856601</v>
       </c>
       <c r="L17">
         <v>81.435568790000005</v>
       </c>
       <c r="M17">
-        <v>397.1444487</v>
+        <v>250.53075440000001</v>
       </c>
       <c r="N17">
         <v>3.4</v>
@@ -1527,7 +1551,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>121.37869000000001</v>
@@ -1542,7 +1566,7 @@
         <v>0.30017453399999999</v>
       </c>
       <c r="F18">
-        <v>0.11885245899999999</v>
+        <v>0.11641221493482599</v>
       </c>
       <c r="G18">
         <v>1931</v>
@@ -1551,19 +1575,19 @@
         <v>6.7826209679999998</v>
       </c>
       <c r="I18">
-        <v>17.471803739999999</v>
+        <v>17.754681451612999</v>
       </c>
       <c r="J18">
         <v>87.362190859999998</v>
       </c>
       <c r="K18">
-        <v>89.829601449999998</v>
+        <v>86.119648297490798</v>
       </c>
       <c r="L18">
         <v>81.435568790000005</v>
       </c>
       <c r="M18">
-        <v>397.1444487</v>
+        <v>250.53075440000001</v>
       </c>
       <c r="N18">
         <v>3.45</v>
@@ -1583,7 +1607,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>121.37600999999999</v>
@@ -1598,7 +1622,7 @@
         <v>0.259896725</v>
       </c>
       <c r="F19">
-        <v>0.12525667300000001</v>
+        <v>0.13307984173297899</v>
       </c>
       <c r="G19">
         <v>1980</v>
@@ -1607,19 +1631,19 @@
         <v>6.3835768369999997</v>
       </c>
       <c r="I19">
-        <v>17.030944439999999</v>
+        <v>17.378605734767</v>
       </c>
       <c r="J19">
         <v>92.918172490000003</v>
       </c>
       <c r="K19">
-        <v>95.253079709999994</v>
+        <v>93.943468637992893</v>
       </c>
       <c r="L19">
         <v>81.550012219999999</v>
       </c>
       <c r="M19">
-        <v>395.03178109999999</v>
+        <v>250.61170659999999</v>
       </c>
       <c r="N19">
         <v>3.64</v>
@@ -1639,7 +1663,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>121.43698000000001</v>
@@ -1654,7 +1678,7 @@
         <v>0.33450087899999997</v>
       </c>
       <c r="F20">
-        <v>0.13786008999999999</v>
+        <v>0.156673118472099</v>
       </c>
       <c r="G20">
         <v>1910</v>
@@ -1663,19 +1687,19 @@
         <v>6.4603651429999998</v>
       </c>
       <c r="I20">
-        <v>17.713998790000002</v>
+        <v>18.060225358423001</v>
       </c>
       <c r="J20">
         <v>92.313191079999996</v>
       </c>
       <c r="K20">
-        <v>93.339004829999993</v>
+        <v>91.119783154121905</v>
       </c>
       <c r="L20">
         <v>120.973719</v>
       </c>
       <c r="M20">
-        <v>395.91982359999997</v>
+        <v>226.62886</v>
       </c>
       <c r="N20">
         <v>3.21</v>
@@ -1695,7 +1719,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>121.43625</v>
@@ -1710,7 +1734,7 @@
         <v>0.31076389599999998</v>
       </c>
       <c r="F21">
-        <v>0.121399179</v>
+        <v>0.130350187420845</v>
       </c>
       <c r="G21">
         <v>1920</v>
@@ -1719,19 +1743,19 @@
         <v>6.4734251790000004</v>
       </c>
       <c r="I21">
-        <v>17.728759360000002</v>
+        <v>18.070809587813699</v>
       </c>
       <c r="J21">
         <v>91.864507169999996</v>
       </c>
       <c r="K21">
-        <v>92.534948670000006</v>
+        <v>89.785393593189994</v>
       </c>
       <c r="L21">
         <v>120.973719</v>
       </c>
       <c r="M21">
-        <v>395.91982359999997</v>
+        <v>226.62886</v>
       </c>
       <c r="N21">
         <v>3.34</v>
@@ -1751,7 +1775,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>121.43522</v>
@@ -1766,7 +1790,7 @@
         <v>0.31076389599999998</v>
       </c>
       <c r="F22">
-        <v>0.121399179</v>
+        <v>0.130350187420845</v>
       </c>
       <c r="G22">
         <v>1940</v>
@@ -1775,19 +1799,19 @@
         <v>6.352107975</v>
       </c>
       <c r="I22">
-        <v>17.546681759999998</v>
+        <v>17.862373879928299</v>
       </c>
       <c r="J22">
         <v>90.652076609999995</v>
       </c>
       <c r="K22">
-        <v>89.240860510000005</v>
+        <v>85.533505824372398</v>
       </c>
       <c r="L22">
         <v>120.973719</v>
       </c>
       <c r="M22">
-        <v>395.91982359999997</v>
+        <v>226.62886</v>
       </c>
       <c r="N22">
         <v>3.35</v>
@@ -1807,7 +1831,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>121.35598</v>
@@ -1822,7 +1846,7 @@
         <v>0.42579504800000001</v>
       </c>
       <c r="F23">
-        <v>0.19512194399999999</v>
+        <v>0.173076927661896</v>
       </c>
       <c r="G23">
         <v>1960</v>
@@ -1831,19 +1855,19 @@
         <v>6.0352936829999999</v>
       </c>
       <c r="I23">
-        <v>17.391666059999999</v>
+        <v>17.9100477150538</v>
       </c>
       <c r="J23">
         <v>93.940196909999997</v>
       </c>
       <c r="K23">
-        <v>93.885382250000006</v>
+        <v>90.713176747311906</v>
       </c>
       <c r="L23">
         <v>98.001529930000004</v>
       </c>
       <c r="M23">
-        <v>303.13062880000001</v>
+        <v>213.84870939999999</v>
       </c>
       <c r="N23">
         <v>3.8</v>
@@ -1863,7 +1887,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>121.35692</v>
@@ -1878,7 +1902,7 @@
         <v>0.41843971600000002</v>
       </c>
       <c r="F24">
-        <v>0.16989247499999999</v>
+        <v>0.14779271185398099</v>
       </c>
       <c r="G24">
         <v>1920</v>
@@ -1887,19 +1911,19 @@
         <v>6.2418198919999996</v>
       </c>
       <c r="I24">
-        <v>17.69109813</v>
+        <v>18.222874103942701</v>
       </c>
       <c r="J24">
         <v>93.321431000000004</v>
       </c>
       <c r="K24">
-        <v>92.073200790000001</v>
+        <v>89.807600806451603</v>
       </c>
       <c r="L24">
         <v>102.5764171</v>
       </c>
       <c r="M24">
-        <v>290.9555307</v>
+        <v>210.75810250000001</v>
       </c>
       <c r="N24">
         <v>3.33</v>
@@ -1919,7 +1943,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>121.35589</v>
@@ -1934,7 +1958,7 @@
         <v>0.42375886400000001</v>
       </c>
       <c r="F25">
-        <v>0.17673377700000001</v>
+        <v>0.15296366810798601</v>
       </c>
       <c r="G25">
         <v>1910</v>
@@ -1943,19 +1967,19 @@
         <v>6.1188826159999996</v>
       </c>
       <c r="I25">
-        <v>17.508788039999999</v>
+        <v>18.027835125448</v>
       </c>
       <c r="J25">
         <v>90.674345880000004</v>
       </c>
       <c r="K25">
-        <v>90.764870169999995</v>
+        <v>83.273996415770796</v>
       </c>
       <c r="L25">
         <v>102.5764171</v>
       </c>
       <c r="M25">
-        <v>290.9555307</v>
+        <v>210.75810250000001</v>
       </c>
       <c r="N25">
         <v>3.82</v>
@@ -1975,7 +1999,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>121.5074</v>
@@ -1990,7 +2014,7 @@
         <v>0.427816898</v>
       </c>
       <c r="F26">
-        <v>0.18448637400000001</v>
+        <v>0.194931775331497</v>
       </c>
       <c r="G26">
         <v>1850</v>
@@ -1999,19 +2023,19 @@
         <v>6.1151966849999999</v>
       </c>
       <c r="I26">
-        <v>17.699059479999999</v>
+        <v>18.040794130824398</v>
       </c>
       <c r="J26">
         <v>94.372431680000005</v>
       </c>
       <c r="K26">
-        <v>95.408220709999995</v>
+        <v>93.820918682795707</v>
       </c>
       <c r="L26">
         <v>155.6543351</v>
       </c>
       <c r="M26">
-        <v>405.15652249999999</v>
+        <v>256.93622069999998</v>
       </c>
       <c r="N26">
         <v>3.48</v>
@@ -2031,7 +2055,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>121.506376</v>
@@ -2046,7 +2070,7 @@
         <v>0.43432575499999998</v>
       </c>
       <c r="F27">
-        <v>0.18907563399999999</v>
+        <v>0.184675827622414</v>
       </c>
       <c r="G27">
         <v>1855</v>
@@ -2055,19 +2079,19 @@
         <v>6.0779368280000003</v>
       </c>
       <c r="I27">
-        <v>17.523611110000001</v>
+        <v>17.8575112007168</v>
       </c>
       <c r="J27">
         <v>93.232717289999997</v>
       </c>
       <c r="K27">
-        <v>94.03926027</v>
+        <v>88.902224462365098</v>
       </c>
       <c r="L27">
         <v>155.6543351</v>
       </c>
       <c r="M27">
-        <v>405.15652249999999</v>
+        <v>256.93622069999998</v>
       </c>
       <c r="N27">
         <v>3.56</v>
@@ -2087,7 +2111,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>121.50279500000001</v>
@@ -2102,7 +2126,7 @@
         <v>0.43523314600000002</v>
       </c>
       <c r="F28">
-        <v>0.18277311299999999</v>
+        <v>0.18834951519966101</v>
       </c>
       <c r="G28">
         <v>1890</v>
@@ -2111,19 +2135,19 @@
         <v>6.0998635749999996</v>
       </c>
       <c r="I28">
-        <v>17.685711649999998</v>
+        <v>18.005357302867399</v>
       </c>
       <c r="J28">
         <v>93.379452279999995</v>
       </c>
       <c r="K28">
-        <v>94.163965880000006</v>
+        <v>91.957672043010803</v>
       </c>
       <c r="L28">
         <v>159.1962197</v>
       </c>
       <c r="M28">
-        <v>413.40970759999999</v>
+        <v>260.69217930000002</v>
       </c>
       <c r="N28">
         <v>3.74</v>
@@ -2148,62 +2172,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BB343-7902-D742-9769-A3287BB47325}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4</v>
       </c>
       <c r="Q1" t="s">
         <v>56</v>
@@ -2214,10 +2238,28 @@
       <c r="S1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>17.142605679999999</v>
@@ -2247,36 +2289,54 @@
         <v>12.95239699</v>
       </c>
       <c r="K2">
+        <v>14.71047222</v>
+      </c>
+      <c r="L2">
+        <v>16.400886159999999</v>
+      </c>
+      <c r="M2">
+        <v>17.535275540000001</v>
+      </c>
+      <c r="N2">
         <v>5.6016598000000001E-2</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>5.6974458999999998E-2</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>5.9602648000000001E-2</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>6.9518714999999995E-2</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>0.107936509</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>0.12392427</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>0.10204082</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>0.108202443</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>0.128404662</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W2">
+        <v>0.10482180100000001</v>
+      </c>
+      <c r="X2">
+        <v>8.2159624000000001E-2</v>
+      </c>
+      <c r="Y2">
+        <v>4.9212596999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>16.886128320000001</v>
@@ -2306,36 +2366,54 @@
         <v>12.898994439999999</v>
       </c>
       <c r="K3">
+        <v>14.597398310000001</v>
+      </c>
+      <c r="L3">
+        <v>16.229580850000001</v>
+      </c>
+      <c r="M3">
+        <v>17.35853943</v>
+      </c>
+      <c r="N3">
         <v>4.7817048000000001E-2</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>5.1282052000000002E-2</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>4.8172756999999997E-2</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>6.7495561999999995E-2</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>0.101105846</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>0.12349913999999999</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>9.5327101999999997E-2</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>0.10899654</v>
       </c>
-      <c r="S3">
+      <c r="V3">
         <v>0.120229006</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W3">
+        <v>9.6114515999999997E-2</v>
+      </c>
+      <c r="X3">
+        <v>7.3459714999999995E-2</v>
+      </c>
+      <c r="Y3">
+        <v>3.9215687999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>16.843705010000001</v>
@@ -2365,36 +2443,54 @@
         <v>12.92057269</v>
       </c>
       <c r="K4">
+        <v>14.66313542</v>
+      </c>
+      <c r="L4">
+        <v>16.28012996</v>
+      </c>
+      <c r="M4">
+        <v>17.316293909999999</v>
+      </c>
+      <c r="N4">
         <v>4.7817048000000001E-2</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>5.1282052000000002E-2</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>4.8172756999999997E-2</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>6.7495561999999995E-2</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>0.101105846</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>0.12349913999999999</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>9.5327101999999997E-2</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>0.10899654</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>0.120229006</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W4">
+        <v>9.6114515999999997E-2</v>
+      </c>
+      <c r="X4">
+        <v>7.3459714999999995E-2</v>
+      </c>
+      <c r="Y4">
+        <v>3.9215687999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>17.10806371</v>
@@ -2424,36 +2520,54 @@
         <v>13.14569051</v>
       </c>
       <c r="K5">
+        <v>14.80556548</v>
+      </c>
+      <c r="L5">
+        <v>16.305771830000001</v>
+      </c>
+      <c r="M5">
+        <v>17.47868369</v>
+      </c>
+      <c r="N5">
         <v>4.9792532E-2</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>8.2851641000000004E-2</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>0.101836391</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>0.108581439</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>0.129746839</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>0.15463916999999999</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>0.119626172</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>0.120274916</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>0.13092979799999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <v>0.11273486200000001</v>
+      </c>
+      <c r="X5">
+        <v>0.11032863699999999</v>
+      </c>
+      <c r="Y5">
+        <v>4.296875E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>17.038620470000001</v>
@@ -2483,36 +2597,54 @@
         <v>12.993958559999999</v>
       </c>
       <c r="K6">
+        <v>14.91295573</v>
+      </c>
+      <c r="L6">
+        <v>16.460445679999999</v>
+      </c>
+      <c r="M6">
+        <v>17.609603159999999</v>
+      </c>
+      <c r="N6">
         <v>4.9792532E-2</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>8.2851641000000004E-2</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>0.101836391</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>0.108581439</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>0.129746839</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>0.15463916999999999</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>0.119626172</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>0.120274916</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>0.13092979799999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W6">
+        <v>0.11273486200000001</v>
+      </c>
+      <c r="X6">
+        <v>0.11032863699999999</v>
+      </c>
+      <c r="Y6">
+        <v>4.296875E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>17.298215280000001</v>
@@ -2542,36 +2674,54 @@
         <v>13.25098148</v>
       </c>
       <c r="K7">
+        <v>15.02034598</v>
+      </c>
+      <c r="L7">
+        <v>16.615119539999998</v>
+      </c>
+      <c r="M7">
+        <v>17.740522630000001</v>
+      </c>
+      <c r="N7">
         <v>6.0165974999999997E-2</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>7.0476188999999995E-2</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>9.2715233999999994E-2</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>0.103806227</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>0.120063193</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>0.148020655</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>0.115596332</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>0.12975779200000001</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>0.12571428700000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W7">
+        <v>0.117154814</v>
+      </c>
+      <c r="X7">
+        <v>0.11395348600000001</v>
+      </c>
+      <c r="Y7">
+        <v>4.7058823999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>16.86946618</v>
@@ -2601,36 +2751,54 @@
         <v>12.65538218</v>
       </c>
       <c r="K8">
+        <v>14.71770858</v>
+      </c>
+      <c r="L8">
+        <v>16.304128720000001</v>
+      </c>
+      <c r="M8">
+        <v>17.280460130000002</v>
+      </c>
+      <c r="N8">
         <v>5.3278687999999998E-2</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>8.0234833000000005E-2</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>0.185737982</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>0.189716309</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>0.18730159099999999</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>0.17647059300000001</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>0.14542190699999999</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <v>0.14839798200000001</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>0.17300380800000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W8">
+        <v>0.13953489099999999</v>
+      </c>
+      <c r="X8">
+        <v>9.6698113000000002E-2</v>
+      </c>
+      <c r="Y8">
+        <v>4.5977010999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>16.887043779999999</v>
@@ -2660,36 +2828,54 @@
         <v>12.61087523</v>
       </c>
       <c r="K9">
+        <v>14.60351389</v>
+      </c>
+      <c r="L9">
+        <v>16.182056800000002</v>
+      </c>
+      <c r="M9">
+        <v>17.17109722</v>
+      </c>
+      <c r="N9">
         <v>6.0291059000000001E-2</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>9.5890409999999995E-2</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>0.19141913999999999</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>0.20494699499999999</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>0.20253165100000001</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>0.20707070799999999</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <v>0.168498173</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <v>0.14529915199999999</v>
       </c>
-      <c r="S9">
+      <c r="V9">
         <v>0.18525520000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W9">
+        <v>0.16666667199999999</v>
+      </c>
+      <c r="X9">
+        <v>0.110599078</v>
+      </c>
+      <c r="Y9">
+        <v>5.5555555999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>16.72798551</v>
@@ -2719,36 +2905,54 @@
         <v>12.61112569</v>
       </c>
       <c r="K10">
+        <v>14.61614831</v>
+      </c>
+      <c r="L10">
+        <v>16.234563489999999</v>
+      </c>
+      <c r="M10">
+        <v>17.16211895</v>
+      </c>
+      <c r="N10">
         <v>6.9182387999999997E-2</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>8.7890625E-2</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>0.18646864599999999</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>0.20141342300000001</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>0.193396226</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>0.18212479400000001</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>0.159709617</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>0.14853195799999999</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>0.18441064700000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W10">
+        <v>0.16135881799999999</v>
+      </c>
+      <c r="X10">
+        <v>0.11709602199999999</v>
+      </c>
+      <c r="Y10">
+        <v>5.7361375999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>16.568702290000001</v>
@@ -2778,36 +2982,54 @@
         <v>12.19828727</v>
       </c>
       <c r="K11">
+        <v>13.996230779999999</v>
+      </c>
+      <c r="L11">
+        <v>15.8404375</v>
+      </c>
+      <c r="M11">
+        <v>16.883061380000001</v>
+      </c>
+      <c r="N11">
         <v>8.8090000000000002E-2</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>0.11222500000000001</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>0.17571999999999999</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>0.17624000000000001</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>0.207985</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>0.228905</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>0.1899825</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>0.20119999999999999</v>
       </c>
-      <c r="S11">
+      <c r="V11">
         <v>0.2250125</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W11">
+        <v>0.18670999999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.16153500000000001</v>
+      </c>
+      <c r="Y11">
+        <v>8.3419999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>17.262935389999999</v>
@@ -2837,36 +3059,54 @@
         <v>12.696257640000001</v>
       </c>
       <c r="K12">
+        <v>14.29384772</v>
+      </c>
+      <c r="L12">
+        <v>16.16552927</v>
+      </c>
+      <c r="M12">
+        <v>17.30660215</v>
+      </c>
+      <c r="N12">
         <v>7.9664573000000002E-2</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>8.4645665999999994E-2</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>0.140468225</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>0.14716312300000001</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>0.18641389899999999</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>0.20583190000000001</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>0.162616819</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>0.169257343</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>0.20000000300000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W12">
+        <v>0.154008433</v>
+      </c>
+      <c r="X12">
+        <v>0.14841848599999999</v>
+      </c>
+      <c r="Y12">
+        <v>7.9150579999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>16.671754230000001</v>
@@ -2896,36 +3136,54 @@
         <v>12.4208287</v>
       </c>
       <c r="K13">
+        <v>14.14503925</v>
+      </c>
+      <c r="L13">
+        <v>16.00298338</v>
+      </c>
+      <c r="M13">
+        <v>17.094831769999999</v>
+      </c>
+      <c r="N13">
         <v>8.8090000000000002E-2</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>0.11222500000000001</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>0.17571999999999999</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>0.17624000000000001</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>0.207985</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>0.228905</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>0.1899825</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>0.20119999999999999</v>
       </c>
-      <c r="S13">
+      <c r="V13">
         <v>0.2250125</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W13">
+        <v>0.18670999999999999</v>
+      </c>
+      <c r="X13">
+        <v>0.16153500000000001</v>
+      </c>
+      <c r="Y13">
+        <v>8.3419999999999994E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>16.767602660000001</v>
@@ -2955,36 +3213,54 @@
         <v>12.48498171</v>
       </c>
       <c r="K14">
+        <v>14.277400549999999</v>
+      </c>
+      <c r="L14">
+        <v>16.10004588</v>
+      </c>
+      <c r="M14">
+        <v>17.16383356</v>
+      </c>
+      <c r="N14">
         <v>8.8659793000000001E-2</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>0.16570328200000001</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>0.21922428899999999</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>0.174957111</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>0.23174603299999999</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>0.275042444</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>0.21111111299999999</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>0.28183361899999998</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>0.30798479899999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W14">
+        <v>0.22698073099999999</v>
+      </c>
+      <c r="X14">
+        <v>0.19002374999999999</v>
+      </c>
+      <c r="Y14">
+        <v>0.10150376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>16.794447770000001</v>
@@ -3014,36 +3290,54 @@
         <v>12.608624069999999</v>
       </c>
       <c r="K15">
+        <v>14.380420389999999</v>
+      </c>
+      <c r="L15">
+        <v>16.15130035</v>
+      </c>
+      <c r="M15">
+        <v>17.224108650000002</v>
+      </c>
+      <c r="N15">
         <v>8.8659793000000001E-2</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>0.16570328200000001</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>0.21922428899999999</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>0.174957111</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>0.23174603299999999</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>0.275042444</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>0.21111111299999999</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>0.28183361899999998</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>0.30798479899999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W15">
+        <v>0.22698073099999999</v>
+      </c>
+      <c r="X15">
+        <v>0.19002374999999999</v>
+      </c>
+      <c r="Y15">
+        <v>0.10150376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>16.506212560000002</v>
@@ -3073,36 +3367,54 @@
         <v>12.314428940000001</v>
       </c>
       <c r="K16">
+        <v>14.05140873</v>
+      </c>
+      <c r="L16">
+        <v>15.83533482</v>
+      </c>
+      <c r="M16">
+        <v>16.853850810000001</v>
+      </c>
+      <c r="N16">
         <v>7.5819671000000005E-2</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>0.14090019500000001</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>0.17875210899999999</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>0.15451389600000001</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>0.203791469</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>0.23661485300000001</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>0.19589552299999999</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>0.24143835899999999</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>0.25572520500000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W16">
+        <v>0.20212766500000001</v>
+      </c>
+      <c r="X16">
+        <v>0.15813954199999999</v>
+      </c>
+      <c r="Y16">
+        <v>7.3170729000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>17.336656699999999</v>
@@ -3132,36 +3444,54 @@
         <v>12.96302639</v>
       </c>
       <c r="K17">
+        <v>14.918209450000001</v>
+      </c>
+      <c r="L17">
+        <v>16.761449899999999</v>
+      </c>
+      <c r="M17">
+        <v>17.767870739999999</v>
+      </c>
+      <c r="N17">
         <v>0.107660457</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>0.148571432</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>0.26800671199999998</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>0.25565215899999999</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>0.29280000900000003</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <v>0.29982668200000001</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>0.25830256899999998</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>0.27899161</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>0.34235978099999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W17">
+        <v>0.25847458800000001</v>
+      </c>
+      <c r="X17">
+        <v>0.20432692799999999</v>
+      </c>
+      <c r="Y17">
+        <v>0.12098299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>17.471803739999999</v>
@@ -3191,36 +3521,54 @@
         <v>13.062373839999999</v>
       </c>
       <c r="K18">
+        <v>14.950884670000001</v>
+      </c>
+      <c r="L18">
+        <v>16.722202630000002</v>
+      </c>
+      <c r="M18">
+        <v>17.75468145</v>
+      </c>
+      <c r="N18">
         <v>0.11885245899999999</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>0.153256699</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>0.24333334000000001</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>0.253913045</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>0.28843104800000002</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>0.30017453399999999</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>0.24860852999999999</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>0.27986347700000003</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>0.30608364900000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W18">
+        <v>0.26260504099999998</v>
+      </c>
+      <c r="X18">
+        <v>0.20470587900000001</v>
+      </c>
+      <c r="Y18">
+        <v>0.116412215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>17.030944439999999</v>
@@ -3250,36 +3598,54 @@
         <v>12.775190050000001</v>
       </c>
       <c r="K19">
+        <v>14.64165017</v>
+      </c>
+      <c r="L19">
+        <v>16.407492309999999</v>
+      </c>
+      <c r="M19">
+        <v>17.37860573</v>
+      </c>
+      <c r="N19">
         <v>0.12525667300000001</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>0.14230769900000001</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>0.23283082199999999</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>0.215411559</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>0.25352111500000002</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>0.259896725</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>0.225925922</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>0.29610830500000002</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>0.33528265400000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W19">
+        <v>0.241090149</v>
+      </c>
+      <c r="X19">
+        <v>0.174712643</v>
+      </c>
+      <c r="Y19">
+        <v>0.133079842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>17.713998790000002</v>
@@ -3309,36 +3675,54 @@
         <v>12.91376968</v>
       </c>
       <c r="K20">
+        <v>14.942062</v>
+      </c>
+      <c r="L20">
+        <v>16.932037950000002</v>
+      </c>
+      <c r="M20">
+        <v>18.06022536</v>
+      </c>
+      <c r="N20">
         <v>0.13786008999999999</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>0.214145377</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>0.315525889</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>0.29597199000000002</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>0.350877196</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>0.33450087899999997</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>0.26029962299999998</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>0.28076255300000003</v>
       </c>
-      <c r="S20">
+      <c r="V20">
         <v>0.30891087699999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W20">
+        <v>0.25210085500000001</v>
+      </c>
+      <c r="X20">
+        <v>0.22195121600000001</v>
+      </c>
+      <c r="Y20">
+        <v>0.156673118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>17.728759360000002</v>
@@ -3368,36 +3752,54 @@
         <v>12.942992589999999</v>
       </c>
       <c r="K21">
+        <v>14.957031990000001</v>
+      </c>
+      <c r="L21">
+        <v>16.90940179</v>
+      </c>
+      <c r="M21">
+        <v>18.07080959</v>
+      </c>
+      <c r="N21">
         <v>0.121399179</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>0.220039293</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>0.30528053599999999</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>0.322807014</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>0.37420383099999999</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <v>0.31076389599999998</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>0.26127818200000003</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>0.282495677</v>
       </c>
-      <c r="S21">
+      <c r="V21">
         <v>0.31372550100000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W21">
+        <v>0.25158563299999998</v>
+      </c>
+      <c r="X21">
+        <v>0.22413793200000001</v>
+      </c>
+      <c r="Y21">
+        <v>0.13035018700000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>17.546681759999998</v>
@@ -3427,36 +3829,54 @@
         <v>12.79761806</v>
       </c>
       <c r="K22">
+        <v>14.82200645</v>
+      </c>
+      <c r="L22">
+        <v>16.70975322</v>
+      </c>
+      <c r="M22">
+        <v>17.86237388</v>
+      </c>
+      <c r="N22">
         <v>0.121399179</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>0.220039293</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>0.30528053599999999</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>0.322807014</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>0.37420383099999999</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <v>0.31076389599999998</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>0.26127818200000003</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>0.282495677</v>
       </c>
-      <c r="S22">
+      <c r="V22">
         <v>0.31372550100000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W22">
+        <v>0.25158563299999998</v>
+      </c>
+      <c r="X22">
+        <v>0.22413793200000001</v>
+      </c>
+      <c r="Y22">
+        <v>0.13035018700000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>17.391666059999999</v>
@@ -3486,36 +3906,54 @@
         <v>12.75072546</v>
       </c>
       <c r="K23">
+        <v>14.85719692</v>
+      </c>
+      <c r="L23">
+        <v>17.066889880000002</v>
+      </c>
+      <c r="M23">
+        <v>17.910047720000001</v>
+      </c>
+      <c r="N23">
         <v>0.19512194399999999</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>0.26612904700000001</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>0.34736841899999998</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>0.35489833399999998</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>0.43322476700000001</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <v>0.42579504800000001</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>0.32270169300000001</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>0.30526316199999998</v>
       </c>
-      <c r="S23">
+      <c r="V23">
         <v>0.33400809799999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W23">
+        <v>0.284463882</v>
+      </c>
+      <c r="X23">
+        <v>0.229468599</v>
+      </c>
+      <c r="Y23">
+        <v>0.17307692799999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>17.69109813</v>
@@ -3545,36 +3983,54 @@
         <v>12.93420394</v>
       </c>
       <c r="K24">
+        <v>15.00430283</v>
+      </c>
+      <c r="L24">
+        <v>17.329374999999999</v>
+      </c>
+      <c r="M24">
+        <v>18.222874099999999</v>
+      </c>
+      <c r="N24">
         <v>0.16989247499999999</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>0.23694778999999999</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>0.35115864899999999</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>0.364791274</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>0.42668864099999998</v>
       </c>
-      <c r="P24">
+      <c r="S24">
         <v>0.41843971600000002</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>0.340186924</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>0.345744669</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>0.34738954900000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W24">
+        <v>0.29787233499999999</v>
+      </c>
+      <c r="X24">
+        <v>0.216152012</v>
+      </c>
+      <c r="Y24">
+        <v>0.14779271199999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>17.508788039999999</v>
@@ -3604,36 +4060,54 @@
         <v>12.78390972</v>
       </c>
       <c r="K25">
+        <v>14.91703249</v>
+      </c>
+      <c r="L25">
+        <v>17.146986859999998</v>
+      </c>
+      <c r="M25">
+        <v>18.02783513</v>
+      </c>
+      <c r="N25">
         <v>0.17673377700000001</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>0.25799998600000001</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <v>0.33508771700000001</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>0.34981685899999998</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>0.425287366</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>0.42375886400000001</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>0.33208253999999998</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>0.32978722500000002</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>0.35102039600000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W25">
+        <v>0.29094827200000001</v>
+      </c>
+      <c r="X25">
+        <v>0.21980676099999999</v>
+      </c>
+      <c r="Y25">
+        <v>0.152963668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>17.699059479999999</v>
@@ -3663,36 +4137,54 @@
         <v>12.89331389</v>
       </c>
       <c r="K26">
+        <v>15.06315551</v>
+      </c>
+      <c r="L26">
+        <v>17.1429747</v>
+      </c>
+      <c r="M26">
+        <v>18.040794129999998</v>
+      </c>
+      <c r="N26">
         <v>0.18448637400000001</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>0.32048681400000001</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>0.47594502599999999</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <v>0.44247788199999999</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>0.46849757400000003</v>
       </c>
-      <c r="P26">
+      <c r="S26">
         <v>0.427816898</v>
       </c>
-      <c r="Q26">
+      <c r="T26">
         <v>0.40000000600000002</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <v>0.409722209</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>0.45769229500000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W26">
+        <v>0.33916848900000002</v>
+      </c>
+      <c r="X26">
+        <v>0.28605768100000001</v>
+      </c>
+      <c r="Y26">
+        <v>0.194931775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>17.523611110000001</v>
@@ -3722,36 +4214,54 @@
         <v>12.75584722</v>
       </c>
       <c r="K27">
+        <v>14.926790670000001</v>
+      </c>
+      <c r="L27">
+        <v>16.989310759999999</v>
+      </c>
+      <c r="M27">
+        <v>17.857511200000001</v>
+      </c>
+      <c r="N27">
         <v>0.18907563399999999</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>0.308316439</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>0.46206897499999999</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>0.41489362699999999</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>0.46548956600000002</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>0.43432575499999998</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <v>0.36242884399999997</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>0.40963855399999999</v>
       </c>
-      <c r="S27">
+      <c r="V27">
         <v>0.43410852599999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W27">
+        <v>0.34341251900000003</v>
+      </c>
+      <c r="X27">
+        <v>0.26763990500000001</v>
+      </c>
+      <c r="Y27">
+        <v>0.18467582799999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>17.685711649999998</v>
@@ -3781,35 +4291,53 @@
         <v>12.88124421</v>
       </c>
       <c r="K28">
+        <v>14.92314807</v>
+      </c>
+      <c r="L28">
+        <v>17.06262971</v>
+      </c>
+      <c r="M28">
+        <v>18.0053573</v>
+      </c>
+      <c r="N28">
         <v>0.18277311299999999</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>0.29878050099999998</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>0.447916657</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>0.420677364</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>0.46416938299999999</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>0.43523314600000002</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>0.36278194200000002</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>0.39723661500000002</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>0.41682973499999998</v>
       </c>
+      <c r="W28">
+        <v>0.34408602100000002</v>
+      </c>
+      <c r="X28">
+        <v>0.26699030400000001</v>
+      </c>
+      <c r="Y28">
+        <v>0.188349515</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V28">
     <sortCondition ref="A2:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Environmental variable.xlsx
+++ b/Environmental variable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silin/Desktop/課程講義/HT檔案/Thesis/8000 words/for github/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B77331-2FB2-F648-8D3B-B850A1449E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4EBC5E-B26A-524E-BB82-EBECE93DE070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="4560" windowWidth="26580" windowHeight="16280" activeTab="1" xr2:uid="{E55D0841-4697-9F46-A398-795F066185AC}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="26580" windowHeight="16260" xr2:uid="{E55D0841-4697-9F46-A398-795F066185AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental_variables" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>RH_jan</t>
   </si>
   <si>
-    <t>percip_jan</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>temp_jul</t>
   </si>
   <si>
-    <t>percip_jul</t>
-  </si>
-  <si>
     <t>freq_jul</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>temp_jun</t>
+  </si>
+  <si>
+    <t>precip_jan</t>
+  </si>
+  <si>
+    <t>precip_jul</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF47514F-BD1F-274B-A2ED-F7E581413DB0}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -623,39 +623,39 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>121.34358</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>121.34222</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>121.34168</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>121.35485</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>121.3562</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>121.3533</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>121.36541</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>121.36568</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>121.36608</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>121.44958</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>121.44416</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>121.44784</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>121.36751</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>121.36693</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>121.36572</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>121.38018</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>121.37869000000001</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>121.37600999999999</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>121.43698000000001</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>121.43625</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>121.43522</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>121.35598</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>121.35692</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>121.35589</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>121.5074</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>121.506376</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>121.50279500000001</v>
@@ -2174,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404BB343-7902-D742-9769-A3287BB47325}">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2188,78 +2188,78 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>58</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>59</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>60</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>61</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>62</v>
-      </c>
-      <c r="X1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>17.142605679999999</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>16.886128320000001</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>16.843705010000001</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>17.10806371</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>17.038620470000001</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>17.298215280000001</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>16.86946618</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>16.887043779999999</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>16.72798551</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>16.568702290000001</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>17.262935389999999</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>16.671754230000001</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>16.767602660000001</v>
@@ -3260,7 +3260,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>16.794447770000001</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>16.506212560000002</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>17.336656699999999</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>17.471803739999999</v>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>17.030944439999999</v>
@@ -3645,7 +3645,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>17.713998790000002</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>17.728759360000002</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>17.546681759999998</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>17.391666059999999</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>17.69109813</v>
@@ -4030,7 +4030,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>17.508788039999999</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>17.699059479999999</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>17.523611110000001</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>17.685711649999998</v>
